--- a/src/main/resources/plan/結合テスト仕様書.xlsx
+++ b/src/main/resources/plan/結合テスト仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imagepit/Desktop/emp2-a/plan/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\expense\src\main\resources\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4250ED3A-F21D-BE43-8D4C-601A3B590B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43959DDD-D40B-4060-8551-B98A8A548B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="3140" windowWidth="29300" windowHeight="11160" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>作成者</t>
   </si>
@@ -246,6 +246,403 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t xml:space="preserve">ギホウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>棟方勇志</t>
+    <rPh sb="0" eb="2">
+      <t>ムナカタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>齋藤・原・柏倉・井上・棟方</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カシワグラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イノウエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ムナカタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経費申請入力画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>経費申請確認画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー（申請者）がログインしている。
+P002【メニュー画面】で「経費申請」ボタンが押される。または、ブラウザで経費申請のURLが実行される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経費申請システム</t>
+    <rPh sb="0" eb="4">
+      <t>ケイヒシンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経費申請</t>
+    <rPh sb="0" eb="4">
+      <t>ケイヒシンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録」ボタンを押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力情報をデータベースに登録</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録した経費の情報を記載したP005【経費申請完了画面】を表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力内容に誤りがあった場合は修正ボタンを押下</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページ内タイトル</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力画面</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面表示が正しいかの目視での確認・ＤＢ上にデータが反映されるかの確認・</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モクシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「確認」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「キャンセル」と表示されている</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「確認ボタン」を押下</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「経費申請（確認）」と表示される</t>
+    <rPh sb="1" eb="5">
+      <t>ケイヒシンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「経費申請（入力）」と表示される</t>
+    <rPh sb="1" eb="5">
+      <t>ケイヒシンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「申請日*」と選択ボタンが表示される</t>
+    <rPh sb="1" eb="3">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「勘定科目*」と選択ボタンが表示される</t>
+    <rPh sb="1" eb="5">
+      <t>カンジョウカモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「支払日*」と選択ボタンが表示される</t>
+    <rPh sb="1" eb="4">
+      <t>シハライビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「支払先*」と入力ボタンが表示される</t>
+    <rPh sb="1" eb="4">
+      <t>シハライサキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「金額*」と入力ボタンが表示される</t>
+    <rPh sb="1" eb="3">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「内容（詳細）*」と入力ボタンが表示される</t>
+    <rPh sb="1" eb="3">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「領収書」とファイル選択ボタンが表示される</t>
+    <rPh sb="1" eb="4">
+      <t>リョウシュウショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経費申請確認画面へ遷移する</t>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「申請日」と入力結果が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ニュウリョクケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「勘定科目」と入力結果が表示される</t>
+    <rPh sb="1" eb="5">
+      <t>カンジョウカモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「支払日」と入力結果が表示される</t>
+    <rPh sb="1" eb="4">
+      <t>シハライビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「支払先」と入力結果が表示される</t>
+    <rPh sb="1" eb="4">
+      <t>シハライサキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「金額」と入力結果が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「内容（詳細）*」と入力結果が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「領収書」と入力結果が表示される</t>
+    <rPh sb="1" eb="4">
+      <t>リョウシュウショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「修正」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「メニューへ戻る」と表示される</t>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録」を押下</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -257,7 +654,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -305,6 +702,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -535,7 +939,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,9 +974,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,29 +983,53 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,74 +1037,65 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1031,254 +1447,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="5" customWidth="1"/>
-    <col min="3" max="6" width="7.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="5" customWidth="1"/>
+    <col min="3" max="6" width="7.1796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
-    <col min="8" max="12" width="7.1640625" style="4" customWidth="1"/>
-    <col min="13" max="15" width="8.5" style="4" customWidth="1"/>
-    <col min="16" max="17" width="17.1640625" style="4" customWidth="1"/>
+    <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
+    <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
+    <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10"/>
+      <c r="O2" s="10">
+        <v>45855</v>
+      </c>
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="Q2" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="32" customHeight="1">
+      <c r="A3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="24" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="25"/>
-    </row>
-    <row r="6" spans="1:17" ht="13">
+      <c r="Q5" s="32"/>
+    </row>
+    <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="15"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-    </row>
-    <row r="7" spans="1:17" ht="13">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+    </row>
+    <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="15"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-    </row>
-    <row r="8" spans="1:17" ht="13">
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+    </row>
+    <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="15"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
-    </row>
-    <row r="9" spans="1:17" ht="13">
+      <c r="P8" s="50"/>
+      <c r="Q8" s="52"/>
+    </row>
+    <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="15"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="52"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="6">
@@ -1287,56 +1719,840 @@
       <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="15"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="14"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+    </row>
+    <row r="11" spans="1:17" ht="11.25" customHeight="1">
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+    </row>
+    <row r="12" spans="1:17" ht="11.25" customHeight="1">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+    </row>
+    <row r="13" spans="1:17" ht="11.25" customHeight="1">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+    </row>
+    <row r="14" spans="1:17" ht="11.25" customHeight="1">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+    </row>
+    <row r="15" spans="1:17" ht="11.25" customHeight="1">
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+    </row>
+    <row r="16" spans="1:17" ht="11.25" customHeight="1">
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+    </row>
+    <row r="17" spans="2:17" ht="11.25" customHeight="1">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+    </row>
+    <row r="18" spans="2:17" ht="11.25" customHeight="1">
+      <c r="B18" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="11.25" customHeight="1">
+      <c r="B19" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="11.25" customHeight="1">
+      <c r="H20" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="11.25" customHeight="1">
+      <c r="H21" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="11.25" customHeight="1">
+      <c r="H22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="11.25" customHeight="1">
+      <c r="H23" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="11.25" customHeight="1">
+      <c r="H24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="11.25" customHeight="1">
+      <c r="H25" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="11.25" customHeight="1">
+      <c r="C26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="11.25" customHeight="1">
+      <c r="B27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="11.25" customHeight="1">
+      <c r="B28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="11.25" customHeight="1">
+      <c r="B29" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="11.25" customHeight="1">
+      <c r="C30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="11.25" customHeight="1">
+      <c r="H31" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="11.25" customHeight="1">
+      <c r="H32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="11.25" customHeight="1">
+      <c r="H33" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="11.25" customHeight="1">
+      <c r="H34" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="11.25" customHeight="1">
+      <c r="H35" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="11.25" customHeight="1">
+      <c r="H36" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="11.25" customHeight="1">
+      <c r="C37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="11.25" customHeight="1">
+      <c r="H38" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="11.25" customHeight="1">
+      <c r="H39" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="11.25" customHeight="1">
+      <c r="B40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+    </row>
+    <row r="41" spans="2:8" ht="11.25" customHeight="1">
+      <c r="C41" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+    </row>
+    <row r="42" spans="2:8" ht="11.25" customHeight="1">
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+    </row>
+    <row r="43" spans="2:8" ht="11.25" customHeight="1">
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+    </row>
+    <row r="44" spans="2:8" ht="11.25" customHeight="1">
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+    </row>
+    <row r="45" spans="2:8" ht="11.25" customHeight="1">
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+    </row>
+    <row r="46" spans="2:8" ht="11.25" customHeight="1">
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+    </row>
+    <row r="47" spans="2:8" ht="11.25" customHeight="1">
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+    </row>
+    <row r="48" spans="2:8" ht="11.25" customHeight="1">
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+    </row>
+    <row r="49" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+    </row>
+    <row r="50" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+    </row>
+    <row r="51" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+    </row>
+    <row r="52" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+    </row>
+    <row r="53" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+    </row>
+    <row r="54" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+    </row>
+    <row r="55" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+    </row>
+    <row r="56" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+    </row>
+    <row r="57" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+    </row>
+    <row r="58" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+    </row>
+    <row r="59" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+    </row>
+    <row r="60" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+    </row>
+    <row r="61" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+    </row>
+    <row r="62" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+    </row>
+    <row r="63" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+    </row>
+    <row r="64" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+    </row>
+    <row r="65" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+    </row>
+    <row r="66" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+    </row>
+    <row r="67" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+    </row>
+    <row r="68" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+    </row>
+    <row r="69" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+    </row>
+    <row r="70" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+    </row>
+    <row r="71" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+    </row>
+    <row r="72" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+    </row>
+    <row r="73" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+    </row>
+    <row r="74" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+    </row>
+    <row r="75" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+    </row>
+    <row r="76" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+    </row>
+    <row r="77" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+    </row>
+    <row r="78" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+    </row>
+    <row r="79" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+    </row>
+    <row r="80" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+    </row>
+    <row r="81" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+    </row>
+    <row r="82" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+    </row>
+    <row r="83" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+    </row>
+    <row r="84" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+    </row>
+    <row r="85" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+    </row>
+    <row r="86" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+    </row>
+    <row r="87" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+    </row>
+    <row r="88" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+    </row>
+    <row r="89" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+    </row>
+    <row r="90" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+    </row>
+    <row r="91" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+    </row>
+    <row r="92" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+    </row>
+    <row r="93" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+    </row>
+    <row r="94" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+    </row>
+    <row r="95" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C95" s="48"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+    </row>
+    <row r="96" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+    </row>
+    <row r="97" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+    </row>
+    <row r="98" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C98" s="48"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+    </row>
+    <row r="99" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+    </row>
+    <row r="100" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+    </row>
+    <row r="101" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C101" s="48"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+    </row>
+    <row r="102" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C102" s="48"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+    </row>
+    <row r="103" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C103" s="48"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+    </row>
+    <row r="104" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+    </row>
+    <row r="105" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+    </row>
+    <row r="106" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+    </row>
+    <row r="107" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+    </row>
+    <row r="108" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+    </row>
+    <row r="109" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+    </row>
+    <row r="110" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C110" s="48"/>
+      <c r="D110" s="48"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+    </row>
+    <row r="111" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C111" s="48"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+    </row>
+    <row r="112" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C112" s="48"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+    </row>
+    <row r="113" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+    </row>
+    <row r="114" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C114" s="48"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+    </row>
+    <row r="115" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C115" s="48"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="13">
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/src/main/resources/plan/結合テスト仕様書.xlsx
+++ b/src/main/resources/plan/結合テスト仕様書.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\expense\src\main\resources\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43959DDD-D40B-4060-8551-B98A8A548B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B0BCE1-1178-4D4A-9C6B-96D76608867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
+    <sheet name="UC1" sheetId="178" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="メニュー画面">#REF!</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>作成者</t>
   </si>
@@ -403,10 +404,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「」</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「確認」と表示されている</t>
     <rPh sb="1" eb="3">
       <t>カクニン</t>
@@ -643,6 +640,102 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「修正」を押下</t>
+    <rPh sb="1" eb="3">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経費申請完了画面へ遷移する</t>
+    <rPh sb="0" eb="4">
+      <t>ケイヒシンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力情報を画面に残したまま、経費申請入力画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(1) 申請日は入力必須
+（当日のみ許可）
+(2) 勘定科目は入力必須
+(3) 支払日は入力必須
+（未来日不可）
+(4) 支払先は入力必須
+100文字以内
+(5) 金額は入力必須
+1以上9,999,999以下の整数
+(6) 内容
+（詳細）は入力必須、500文字以内
+(7) 領収書は任意、JPG/PNG形式、5MBまで</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考の制約を違反する場合は、
+エラーメッセージを表示し、
+経費申請入力画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イハン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -654,7 +747,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -709,6 +802,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -724,7 +824,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -933,13 +1033,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -983,6 +1103,48 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1025,77 +1187,140 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1447,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1466,25 +1691,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,23 +1724,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="23" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1525,55 +1750,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="32" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="39"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1582,20 +1807,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="31" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1605,112 +1830,112 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="32"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="14"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="14"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="42" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="14"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="52"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="45" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="14"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="52"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="6">
@@ -1719,192 +1944,192 @@
       <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="14"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" customHeight="1">
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" customHeight="1">
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="2:17" ht="11.25" customHeight="1">
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="2:17" ht="11.25" customHeight="1">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="11.25" customHeight="1">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="11.25" customHeight="1">
       <c r="H20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="11.25" customHeight="1">
       <c r="H21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="11.25" customHeight="1">
       <c r="H22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="11.25" customHeight="1">
       <c r="H23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="11.25" customHeight="1">
       <c r="H24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="11.25" customHeight="1">
       <c r="H25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="11.25" customHeight="1">
@@ -1912,13 +2137,13 @@
         <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="11.25" customHeight="1">
       <c r="B27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:17" ht="11.25" customHeight="1">
@@ -1926,21 +2151,21 @@
         <v>19</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:17" ht="11.25" customHeight="1">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:17" ht="11.25" customHeight="1">
@@ -1948,37 +2173,37 @@
         <v>45</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:17" ht="11.25" customHeight="1">
       <c r="H31" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:17" ht="11.25" customHeight="1">
       <c r="H32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="11.25" customHeight="1">
       <c r="H33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="11.25" customHeight="1">
       <c r="H34" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="11.25" customHeight="1">
       <c r="H35" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="11.25" customHeight="1">
       <c r="H36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="11.25" customHeight="1">
@@ -1986,562 +2211,561 @@
         <v>18</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="11.25" customHeight="1">
       <c r="H38" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="11.25" customHeight="1">
       <c r="H39" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="11.25" customHeight="1">
       <c r="B40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="11.25" customHeight="1">
+      <c r="C41" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-    </row>
-    <row r="41" spans="2:8" ht="11.25" customHeight="1">
-      <c r="C41" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="42" spans="2:8" ht="11.25" customHeight="1">
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
     </row>
     <row r="43" spans="2:8" ht="11.25" customHeight="1">
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="2:8" ht="11.25" customHeight="1">
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="2:8" ht="11.25" customHeight="1">
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
     </row>
     <row r="46" spans="2:8" ht="11.25" customHeight="1">
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" spans="2:8" ht="11.25" customHeight="1">
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
     </row>
     <row r="48" spans="2:8" ht="11.25" customHeight="1">
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
     </row>
     <row r="50" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
     </row>
     <row r="51" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
     </row>
     <row r="54" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
     </row>
     <row r="55" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
     </row>
     <row r="57" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
     </row>
     <row r="58" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
     </row>
     <row r="59" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
     </row>
     <row r="60" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
     </row>
     <row r="62" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
     </row>
     <row r="63" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
     </row>
     <row r="64" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
     </row>
     <row r="65" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
     </row>
     <row r="66" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
     </row>
     <row r="67" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
     </row>
     <row r="68" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
     </row>
     <row r="69" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
     </row>
     <row r="70" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
     </row>
     <row r="71" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
     </row>
     <row r="72" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
     </row>
     <row r="73" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
     </row>
     <row r="74" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
     </row>
     <row r="75" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
     </row>
     <row r="76" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
     </row>
     <row r="77" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
     </row>
     <row r="78" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
     </row>
     <row r="79" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
     </row>
     <row r="80" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C80" s="48"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
     </row>
     <row r="81" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
     </row>
     <row r="82" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="48"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
     </row>
     <row r="84" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
     </row>
     <row r="85" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
     </row>
     <row r="86" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
     </row>
     <row r="87" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
     </row>
     <row r="88" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
     </row>
     <row r="89" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
     </row>
     <row r="90" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
     </row>
     <row r="91" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="48"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
     </row>
     <row r="92" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
     </row>
     <row r="93" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
     </row>
     <row r="94" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
     </row>
     <row r="95" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
     </row>
     <row r="96" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
     </row>
     <row r="97" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C97" s="48"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="48"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
     </row>
     <row r="98" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C98" s="48"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="48"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
     </row>
     <row r="99" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="48"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
     </row>
     <row r="100" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
     </row>
     <row r="101" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
     </row>
     <row r="102" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
     </row>
     <row r="103" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C103" s="48"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="48"/>
-      <c r="F103" s="48"/>
-      <c r="G103" s="48"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
     </row>
     <row r="104" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C104" s="48"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="48"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
     </row>
     <row r="105" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
     </row>
     <row r="106" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
     </row>
     <row r="107" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C107" s="48"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="48"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
     </row>
     <row r="108" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="48"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
     </row>
     <row r="109" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C109" s="48"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
     </row>
     <row r="110" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C110" s="48"/>
-      <c r="D110" s="48"/>
-      <c r="E110" s="48"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
     </row>
     <row r="111" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
     </row>
     <row r="112" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C112" s="48"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
     </row>
     <row r="113" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C113" s="48"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="48"/>
-      <c r="F113" s="48"/>
-      <c r="G113" s="48"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
     </row>
     <row r="114" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
-      <c r="E114" s="48"/>
-      <c r="F114" s="48"/>
-      <c r="G114" s="48"/>
-    </row>
-    <row r="115" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C115" s="48"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="48"/>
-      <c r="F115" s="48"/>
-      <c r="G115" s="48"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H8:L8"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H8:L8"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2559,4 +2783,1218 @@
   <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D23B27B-4CCE-47EB-8F40-25F2EA0A2F30}">
+  <dimension ref="A1:Q112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="4.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="5" customWidth="1"/>
+    <col min="3" max="6" width="7.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8" style="5" customWidth="1"/>
+    <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
+    <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
+    <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="7" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="10">
+        <v>45855</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="32" customHeight="1">
+      <c r="A3" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="51"/>
+    </row>
+    <row r="4" spans="1:17" ht="14" customHeight="1">
+      <c r="A4" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="A5" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="53"/>
+    </row>
+    <row r="6" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A6" s="60">
+        <v>1</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="81"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="79"/>
+    </row>
+    <row r="7" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A7" s="60">
+        <v>2</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="79"/>
+    </row>
+    <row r="8" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A8" s="60">
+        <v>3</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="82"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="79"/>
+    </row>
+    <row r="9" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A9" s="60">
+        <v>4</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="79"/>
+    </row>
+    <row r="10" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A10" s="60">
+        <v>5</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="82"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="79"/>
+    </row>
+    <row r="11" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A11" s="60">
+        <v>6</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="79"/>
+    </row>
+    <row r="12" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A12" s="60">
+        <v>7</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="82"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="79"/>
+    </row>
+    <row r="13" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A13" s="60">
+        <v>8</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="79"/>
+    </row>
+    <row r="14" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A14" s="60">
+        <v>9</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="82"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="79"/>
+    </row>
+    <row r="15" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A15" s="60">
+        <v>10</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="79"/>
+    </row>
+    <row r="16" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A16" s="60">
+        <v>11</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="82"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="79"/>
+    </row>
+    <row r="17" spans="1:17" ht="132">
+      <c r="A17" s="60">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="75"/>
+    </row>
+    <row r="18" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A18" s="60">
+        <v>13</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="79"/>
+    </row>
+    <row r="19" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A19" s="60">
+        <v>14</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="81"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="79"/>
+    </row>
+    <row r="20" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A20" s="60">
+        <v>15</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="79"/>
+    </row>
+    <row r="21" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A21" s="60">
+        <v>16</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="82"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="79"/>
+    </row>
+    <row r="22" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A22" s="60">
+        <v>17</v>
+      </c>
+      <c r="B22" s="61"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="79"/>
+    </row>
+    <row r="23" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A23" s="60">
+        <v>18</v>
+      </c>
+      <c r="B23" s="61"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="82"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="79"/>
+    </row>
+    <row r="24" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A24" s="60">
+        <v>19</v>
+      </c>
+      <c r="B24" s="61"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="79"/>
+    </row>
+    <row r="25" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A25" s="60">
+        <v>20</v>
+      </c>
+      <c r="B25" s="61"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="82"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="79"/>
+    </row>
+    <row r="26" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A26" s="60">
+        <v>21</v>
+      </c>
+      <c r="B26" s="61"/>
+      <c r="C26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="68"/>
+      <c r="H26" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="79"/>
+    </row>
+    <row r="27" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A27" s="60">
+        <v>22</v>
+      </c>
+      <c r="B27" s="61"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="82"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="79"/>
+    </row>
+    <row r="28" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A28" s="60">
+        <v>23</v>
+      </c>
+      <c r="B28" s="61"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="79"/>
+    </row>
+    <row r="29" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A29" s="64">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="87"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="79"/>
+    </row>
+    <row r="30" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A30" s="64">
+        <v>25</v>
+      </c>
+      <c r="B30" s="63"/>
+      <c r="C30" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="86"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="79"/>
+    </row>
+    <row r="31" spans="1:17" ht="11.25" customHeight="1">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="L31" s="83"/>
+    </row>
+    <row r="32" spans="1:17" ht="11.25" customHeight="1">
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+    </row>
+    <row r="48" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+    </row>
+    <row r="50" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+    </row>
+    <row r="52" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+    </row>
+    <row r="54" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+    </row>
+    <row r="55" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+    </row>
+    <row r="56" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+    </row>
+    <row r="57" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+    </row>
+    <row r="58" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+    </row>
+    <row r="59" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+    </row>
+    <row r="60" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+    </row>
+    <row r="61" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+    </row>
+    <row r="62" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+    </row>
+    <row r="63" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+    </row>
+    <row r="64" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+    </row>
+    <row r="65" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+    </row>
+    <row r="67" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+    </row>
+    <row r="68" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+    </row>
+    <row r="69" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+    </row>
+    <row r="70" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+    </row>
+    <row r="71" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+    </row>
+    <row r="72" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+    </row>
+    <row r="73" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+    </row>
+    <row r="74" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+    </row>
+    <row r="75" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+    </row>
+    <row r="76" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+    </row>
+    <row r="77" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+    </row>
+    <row r="78" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+    </row>
+    <row r="79" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+    </row>
+    <row r="80" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+    </row>
+    <row r="81" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+    </row>
+    <row r="82" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+    </row>
+    <row r="83" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+    </row>
+    <row r="84" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+    </row>
+    <row r="85" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+    </row>
+    <row r="86" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+    </row>
+    <row r="87" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+    </row>
+    <row r="88" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+    </row>
+    <row r="89" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+    </row>
+    <row r="90" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+    </row>
+    <row r="91" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+    </row>
+    <row r="92" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+    </row>
+    <row r="93" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+    </row>
+    <row r="94" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+    </row>
+    <row r="95" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+    </row>
+    <row r="96" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+    </row>
+    <row r="97" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+    </row>
+    <row r="98" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+    </row>
+    <row r="99" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+    </row>
+    <row r="100" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+    </row>
+    <row r="101" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+    </row>
+    <row r="102" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+    </row>
+    <row r="103" spans="3:7" ht="11.25" customHeight="1">
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+    </row>
+    <row r="104" spans="3:7" ht="11.25" customHeight="1"/>
+    <row r="110" spans="3:7" ht="11"/>
+    <row r="111" spans="3:7" ht="11"/>
+    <row r="112" spans="3:7" ht="11"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/plan/結合テスト仕様書.xlsx
+++ b/src/main/resources/plan/結合テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\expense\src\main\resources\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B0BCE1-1178-4D4A-9C6B-96D76608867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8EFB3F-3DFF-485F-BBEA-8B785C7DD792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1059,7 +1059,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1145,6 +1145,129 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1187,140 +1310,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1691,25 +1688,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1724,23 +1721,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1755,50 +1752,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="32" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="51"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="51"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1807,20 +1804,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="43" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1830,10 +1827,10 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="53"/>
+      <c r="Q5" s="69"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
@@ -1899,13 +1896,13 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="27"/>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="61"/>
       <c r="M8" s="14"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2764,6 +2761,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="A4:B4"/>
@@ -2772,11 +2774,6 @@
     <mergeCell ref="C3:Q3"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2787,13 +2784,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D23B27B-4CCE-47EB-8F40-25F2EA0A2F30}">
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="11"/>
   <cols>
     <col min="1" max="1" width="4.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" style="5" customWidth="1"/>
@@ -2806,25 +2803,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2839,23 +2836,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2870,72 +2867,72 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="32" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="51"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="51"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="43" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -2945,523 +2942,523 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="53"/>
+      <c r="Q5" s="69"/>
     </row>
     <row r="6" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A6" s="60">
+      <c r="A6" s="33">
         <v>1</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="67"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="81"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="79"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="52"/>
     </row>
     <row r="7" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A7" s="60">
+      <c r="A7" s="33">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="64" t="s">
+      <c r="G7" s="41"/>
+      <c r="H7" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="79"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="52"/>
     </row>
     <row r="8" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A8" s="60">
+      <c r="A8" s="33">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="G8" s="68"/>
+      <c r="B8" s="34"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="82"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="79"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="52"/>
     </row>
     <row r="9" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A9" s="60">
+      <c r="A9" s="33">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="64" t="s">
+      <c r="B9" s="34"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="79"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="52"/>
     </row>
     <row r="10" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A10" s="60">
+      <c r="A10" s="33">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="G10" s="68"/>
+      <c r="B10" s="34"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="82"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="79"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="52"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A11" s="60">
+      <c r="A11" s="33">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="64" t="s">
+      <c r="B11" s="34"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="79"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="52"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A12" s="60">
+      <c r="A12" s="33">
         <v>7</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="G12" s="68"/>
+      <c r="B12" s="34"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="82"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="79"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="52"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A13" s="60">
+      <c r="A13" s="33">
         <v>8</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="64" t="s">
+      <c r="B13" s="34"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="79"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="52"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A14" s="60">
+      <c r="A14" s="33">
         <v>9</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="76" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="78"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="82"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="79"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="52"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A15" s="60">
+      <c r="A15" s="33">
         <v>10</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="64" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="79"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="52"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A16" s="60">
+      <c r="A16" s="33">
         <v>11</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="79"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="52"/>
     </row>
     <row r="17" spans="1:17" ht="132">
-      <c r="A17" s="60">
+      <c r="A17" s="33">
         <v>12</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="80" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="80" t="s">
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="Q17" s="75"/>
+      <c r="Q17" s="48"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A18" s="60">
+      <c r="A18" s="33">
         <v>13</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="64" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="79"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="52"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A19" s="60">
+      <c r="A19" s="33">
         <v>14</v>
       </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="81"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="79"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="52"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A20" s="60">
+      <c r="A20" s="33">
         <v>15</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="64" t="s">
+      <c r="B20" s="34"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="79"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A21" s="60">
+      <c r="A21" s="33">
         <v>16</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="G21" s="68"/>
+      <c r="B21" s="34"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L21" s="82"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="79"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="52"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A22" s="60">
+      <c r="A22" s="33">
         <v>17</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="64" t="s">
+      <c r="B22" s="34"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="79"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="52"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A23" s="60">
+      <c r="A23" s="33">
         <v>18</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="G23" s="68"/>
+      <c r="B23" s="34"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="82"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="79"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="52"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A24" s="60">
+      <c r="A24" s="33">
         <v>19</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="64" t="s">
+      <c r="B24" s="34"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="79"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="52"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A25" s="60">
+      <c r="A25" s="33">
         <v>20</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="82"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="79"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="52"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A26" s="60">
+      <c r="A26" s="33">
         <v>21</v>
       </c>
-      <c r="B26" s="61"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="64" t="s">
+      <c r="G26" s="41"/>
+      <c r="H26" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="79"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="52"/>
     </row>
     <row r="27" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A27" s="60">
+      <c r="A27" s="33">
         <v>22</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="G27" s="68"/>
+      <c r="B27" s="34"/>
+      <c r="G27" s="41"/>
       <c r="H27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L27" s="82"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="79"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="52"/>
     </row>
     <row r="28" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A28" s="60">
+      <c r="A28" s="33">
         <v>23</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="64" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="79"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="52"/>
     </row>
     <row r="29" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A29" s="64">
+      <c r="A29" s="37">
         <v>24</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="64" t="s">
+      <c r="D29" s="58"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="79"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="52"/>
     </row>
     <row r="30" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A30" s="64">
+      <c r="A30" s="37">
         <v>25</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="69" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="84" t="s">
+      <c r="D30" s="57"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="79"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="52"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" customHeight="1">
       <c r="C31" s="23"/>
@@ -3469,7 +3466,6 @@
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
-      <c r="L31" s="83"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" customHeight="1">
       <c r="C32" s="23"/>
@@ -3486,15 +3482,15 @@
       <c r="G33" s="23"/>
     </row>
     <row r="34" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
     </row>
     <row r="35" spans="3:7" ht="11.25" customHeight="1">
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
@@ -3509,7 +3505,7 @@
     <row r="37" spans="3:7" ht="11.25" customHeight="1">
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="85"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
     </row>
@@ -3976,23 +3972,20 @@
       <c r="G103" s="23"/>
     </row>
     <row r="104" spans="3:7" ht="11.25" customHeight="1"/>
-    <row r="110" spans="3:7" ht="11"/>
-    <row r="111" spans="3:7" ht="11"/>
-    <row r="112" spans="3:7" ht="11"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/plan/結合テスト仕様書.xlsx
+++ b/src/main/resources/plan/結合テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\expense\src\main\resources\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8EFB3F-3DFF-485F-BBEA-8B785C7DD792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DA0D24-77F4-42DB-A0E9-DCA1C2398B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
   <si>
     <t>作成者</t>
   </si>
@@ -739,6 +739,29 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>DB登録確認</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB（expense_applications）に入力した情報が登録されている</t>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -747,7 +770,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -806,6 +829,13 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1059,7 +1089,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1235,6 +1265,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1268,56 +1346,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1688,25 +1727,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1721,23 +1760,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="78" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="74"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1752,50 +1791,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="32" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="83"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="67"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="83"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1804,20 +1843,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="62" t="s">
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1827,10 +1866,10 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="62" t="s">
+      <c r="P5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="69"/>
+      <c r="Q5" s="85"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
@@ -1896,13 +1935,13 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="27"/>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="77"/>
       <c r="M8" s="14"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2761,11 +2800,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="A4:B4"/>
@@ -2774,6 +2808,11 @@
     <mergeCell ref="C3:Q3"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2786,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D23B27B-4CCE-47EB-8F40-25F2EA0A2F30}">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11"/>
@@ -2803,25 +2842,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2836,23 +2875,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="78" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="74"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2867,50 +2906,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="32" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="83"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="67"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="83"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="32" t="s">
@@ -2919,20 +2958,20 @@
       <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="62" t="s">
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -2942,10 +2981,10 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="62" t="s">
+      <c r="P5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="69"/>
+      <c r="Q5" s="85"/>
     </row>
     <row r="6" spans="1:17" ht="11.25" customHeight="1">
       <c r="A6" s="33">
@@ -3147,7 +3186,7 @@
       <c r="A16" s="33">
         <v>11</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="59" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="49" t="s">
@@ -3171,7 +3210,7 @@
       <c r="A17" s="33">
         <v>12</v>
       </c>
-      <c r="B17" s="86"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="44"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
@@ -3461,11 +3500,31 @@
       <c r="Q30" s="52"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" customHeight="1">
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+      <c r="A31" s="33">
+        <v>26</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="52"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" customHeight="1">
       <c r="C32" s="23"/>
@@ -3974,6 +4033,11 @@
     <row r="104" spans="3:7" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:Q3"/>
     <mergeCell ref="A1:B2"/>
@@ -3981,11 +4045,6 @@
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/plan/結合テスト仕様書.xlsx
+++ b/src/main/resources/plan/結合テスト仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\expense\src\main\resources\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DA0D24-77F4-42DB-A0E9-DCA1C2398B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2DDFEB-D8DA-4F99-ABB5-DCDCCC4AAFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="80">
   <si>
     <t>作成者</t>
   </si>
@@ -701,45 +701,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(1) 申請日は入力必須
-（当日のみ許可）
-(2) 勘定科目は入力必須
-(3) 支払日は入力必須
-（未来日不可）
-(4) 支払先は入力必須
-100文字以内
-(5) 金額は入力必須
-1以上9,999,999以下の整数
-(6) 内容
-（詳細）は入力必須、500文字以内
-(7) 領収書は任意、JPG/PNG形式、5MBまで</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>備考の制約を違反する場合は、
-エラーメッセージを表示し、
-経費申請入力画面へ遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイヤク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イハン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DB登録確認</t>
     <rPh sb="2" eb="4">
       <t>トウロク</t>
@@ -759,6 +720,117 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考の内容を入力したうえで「確認ボタン」を押下</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+エラーメッセージを表示し、
+経費申請入力画面へ遷移する</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パターン①
+(1) 申請日：本日
+(2) 勘定科目：交通費
+(3) 支払日：テスト実施日から一日後
+(4) 支払先；ランダムな１００文字
+(5) 金額：１円
+(6) 内容：ランダムな５００文字
+(7) 領収書なし
+パターン②
+(1) 申請日：本日
+(2) 勘定科目：交通費
+(3) 支払日：テスト実施日から二日後
+(4) 支払先；ランダムな９９文字
+(5) 金額：9,999,999円
+(6) 内容：ランダムな４９９文字
+(7) 領収書あり</t>
+    <rPh sb="14" eb="16">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パターン①
+(1) 申請日：本日
+(2) 勘定科目：交通費
+(3) 支払日：テスト実施日から一日前
+(4) 支払先；ランダムな１００文字
+(5) 金額：１円
+(6) 内容：ランダムな５００文字
+(7) 領収書なし
+パターン②
+(1) 申請日：本日
+(2) 勘定科目：交通費
+(3) 支払日：テスト実施日から二日前
+(4) 支払先；ランダムな９９文字
+(5) 金額：10,000,000円
+(6) 内容：ランダムな４９９文字
+(7) 領収書あり</t>
+    <rPh sb="14" eb="16">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>エン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1089,7 +1161,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1271,6 +1343,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,50 +1427,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1710,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1727,25 +1814,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1760,23 +1847,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="69" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1791,50 +1878,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="32" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="83"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="72"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="83"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="72"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1843,20 +1930,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="78" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1866,10 +1953,10 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="78" t="s">
+      <c r="P5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="85"/>
+      <c r="Q5" s="74"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
@@ -1935,13 +2022,13 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="27"/>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="77"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
       <c r="M8" s="14"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2800,6 +2887,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="A4:B4"/>
@@ -2808,11 +2900,6 @@
     <mergeCell ref="C3:Q3"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2825,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D23B27B-4CCE-47EB-8F40-25F2EA0A2F30}">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11"/>
@@ -2842,25 +2929,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2875,23 +2962,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="69" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2906,50 +2993,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="32" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="83"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="72"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="83"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="72"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="32" t="s">
@@ -2958,20 +3045,20 @@
       <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="78" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -2981,10 +3068,10 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="78" t="s">
+      <c r="P5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="85"/>
+      <c r="Q5" s="74"/>
     </row>
     <row r="6" spans="1:17" ht="11.25" customHeight="1">
       <c r="A6" s="33">
@@ -3182,7 +3269,7 @@
       <c r="P15" s="37"/>
       <c r="Q15" s="52"/>
     </row>
-    <row r="16" spans="1:17" ht="11.25" customHeight="1">
+    <row r="16" spans="1:17" ht="182" customHeight="1">
       <c r="A16" s="33">
         <v>11</v>
       </c>
@@ -3190,7 +3277,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
@@ -3203,21 +3290,23 @@
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
       <c r="O16" s="33"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="52"/>
-    </row>
-    <row r="17" spans="1:17" ht="132">
+      <c r="P16" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="91"/>
+    </row>
+    <row r="17" spans="1:17" ht="184.5" customHeight="1">
       <c r="A17" s="33">
         <v>12</v>
       </c>
       <c r="B17" s="60"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="94"/>
       <c r="H17" s="53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I17" s="47"/>
       <c r="J17" s="47"/>
@@ -3226,10 +3315,10 @@
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
-      <c r="P17" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" s="48"/>
+      <c r="P17" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="91"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="33">
@@ -3503,18 +3592,18 @@
       <c r="A31" s="33">
         <v>26</v>
       </c>
-      <c r="B31" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="88" t="s">
+      <c r="B31" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="62" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
       <c r="G31" s="48"/>
-      <c r="H31" s="89" t="s">
-        <v>77</v>
+      <c r="H31" s="63" t="s">
+        <v>75</v>
       </c>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
@@ -4032,12 +4121,9 @@
     </row>
     <row r="104" spans="3:7" ht="11.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:Q5"/>
+  <mergeCells count="14">
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:Q3"/>
     <mergeCell ref="A1:B2"/>
@@ -4045,6 +4131,11 @@
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/plan/結合テスト仕様書.xlsx
+++ b/src/main/resources/plan/結合テスト仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness.LAPTOP-C0HULFB7.000\Desktop\expense-1\src\main\resources\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2DDFEB-D8DA-4F99-ABB5-DCDCCC4AAFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765932D4-EB9A-46CA-A170-065B0A393820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="89">
   <si>
     <t>作成者</t>
   </si>
@@ -831,6 +831,60 @@
     </rPh>
     <rPh sb="192" eb="193">
       <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原</t>
+    <rPh sb="0" eb="1">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>齋藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>井上</t>
+    <rPh sb="0" eb="2">
+      <t>イノウエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力情報がクリアされる</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>push</t>
+    <rPh sb="4" eb="5">
+      <t>ゼンイン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1161,7 +1215,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1352,6 +1406,57 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1385,65 +1490,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1814,25 +1871,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1847,23 +1904,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="83" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1878,50 +1935,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="32" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="72"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="89"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="72"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="89"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1930,20 +1987,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="67" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1953,10 +2010,10 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="67" t="s">
+      <c r="P5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="74"/>
+      <c r="Q5" s="91"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
@@ -2022,13 +2079,13 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="27"/>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="83"/>
       <c r="M8" s="14"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2887,11 +2944,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="A4:B4"/>
@@ -2900,6 +2952,11 @@
     <mergeCell ref="C3:Q3"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2910,10 +2967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D23B27B-4CCE-47EB-8F40-25F2EA0A2F30}">
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11"/>
@@ -2928,26 +2985,26 @@
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2961,24 +3018,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="83" t="s">
+    <row r="2" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2992,73 +3049,73 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="32" customHeight="1">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:18" ht="32" customHeight="1">
+      <c r="A3" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="73" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="72"/>
-    </row>
-    <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:18" ht="14" customHeight="1">
+      <c r="A4" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="72"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="67" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -3068,12 +3125,12 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="67" t="s">
+      <c r="P5" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="74"/>
-    </row>
-    <row r="6" spans="1:17" ht="11.25" customHeight="1">
+      <c r="Q5" s="91"/>
+    </row>
+    <row r="6" spans="1:18" ht="11.25" customHeight="1">
       <c r="A6" s="33">
         <v>1</v>
       </c>
@@ -3091,13 +3148,19 @@
         <v>51</v>
       </c>
       <c r="L6" s="54"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
+      <c r="M6" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P6" s="37"/>
       <c r="Q6" s="52"/>
     </row>
-    <row r="7" spans="1:17" ht="11.25" customHeight="1">
+    <row r="7" spans="1:18" ht="11.25" customHeight="1">
       <c r="A7" s="33">
         <v>2</v>
       </c>
@@ -3113,13 +3176,19 @@
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
       <c r="L7" s="52"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
+      <c r="M7" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P7" s="37"/>
       <c r="Q7" s="52"/>
     </row>
-    <row r="8" spans="1:17" ht="11.25" customHeight="1">
+    <row r="8" spans="1:18" ht="11.25" customHeight="1">
       <c r="A8" s="33">
         <v>3</v>
       </c>
@@ -3129,13 +3198,19 @@
         <v>53</v>
       </c>
       <c r="L8" s="55"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
+      <c r="M8" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P8" s="37"/>
       <c r="Q8" s="52"/>
     </row>
-    <row r="9" spans="1:17" ht="11.25" customHeight="1">
+    <row r="9" spans="1:18" ht="11.25" customHeight="1">
       <c r="A9" s="33">
         <v>4</v>
       </c>
@@ -3148,13 +3223,19 @@
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
       <c r="L9" s="52"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
+      <c r="M9" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P9" s="37"/>
       <c r="Q9" s="52"/>
     </row>
-    <row r="10" spans="1:17" ht="11.25" customHeight="1">
+    <row r="10" spans="1:18" ht="11.25" customHeight="1">
       <c r="A10" s="33">
         <v>5</v>
       </c>
@@ -3164,13 +3245,19 @@
         <v>55</v>
       </c>
       <c r="L10" s="55"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
+      <c r="M10" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P10" s="37"/>
       <c r="Q10" s="52"/>
     </row>
-    <row r="11" spans="1:17" ht="11.25" customHeight="1">
+    <row r="11" spans="1:18" ht="11.25" customHeight="1">
       <c r="A11" s="33">
         <v>6</v>
       </c>
@@ -3183,13 +3270,19 @@
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
       <c r="L11" s="52"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
+      <c r="M11" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P11" s="37"/>
       <c r="Q11" s="52"/>
     </row>
-    <row r="12" spans="1:17" ht="11.25" customHeight="1">
+    <row r="12" spans="1:18" ht="11.25" customHeight="1">
       <c r="A12" s="33">
         <v>7</v>
       </c>
@@ -3199,13 +3292,19 @@
         <v>57</v>
       </c>
       <c r="L12" s="55"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
+      <c r="M12" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P12" s="37"/>
       <c r="Q12" s="52"/>
     </row>
-    <row r="13" spans="1:17" ht="11.25" customHeight="1">
+    <row r="13" spans="1:18" ht="11.25" customHeight="1">
       <c r="A13" s="33">
         <v>8</v>
       </c>
@@ -3218,13 +3317,19 @@
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
       <c r="L13" s="52"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
+      <c r="M13" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P13" s="37"/>
       <c r="Q13" s="52"/>
     </row>
-    <row r="14" spans="1:17" ht="11.25" customHeight="1">
+    <row r="14" spans="1:18" ht="11.25" customHeight="1">
       <c r="A14" s="33">
         <v>9</v>
       </c>
@@ -3240,13 +3345,19 @@
         <v>47</v>
       </c>
       <c r="L14" s="55"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
+      <c r="M14" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P14" s="37"/>
       <c r="Q14" s="52"/>
     </row>
-    <row r="15" spans="1:17" ht="11.25" customHeight="1">
+    <row r="15" spans="1:18" ht="11.25" customHeight="1">
       <c r="A15" s="33">
         <v>10</v>
       </c>
@@ -3263,13 +3374,19 @@
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
       <c r="L15" s="52"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
+      <c r="M15" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P15" s="37"/>
       <c r="Q15" s="52"/>
     </row>
-    <row r="16" spans="1:17" ht="182" customHeight="1">
+    <row r="16" spans="1:18" ht="182" customHeight="1">
       <c r="A16" s="33">
         <v>11</v>
       </c>
@@ -3287,24 +3404,31 @@
         <v>59</v>
       </c>
       <c r="L16" s="55"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="90" t="s">
+      <c r="M16" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="Q16" s="91"/>
+      <c r="Q16" s="93"/>
+      <c r="R16"/>
     </row>
     <row r="17" spans="1:17" ht="184.5" customHeight="1">
       <c r="A17" s="33">
         <v>12</v>
       </c>
       <c r="B17" s="60"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
       <c r="H17" s="53" t="s">
         <v>77</v>
       </c>
@@ -3312,13 +3436,19 @@
       <c r="J17" s="47"/>
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="90" t="s">
+      <c r="M17" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="Q17" s="91"/>
+      <c r="Q17" s="93"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="33">
@@ -3341,9 +3471,15 @@
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
+      <c r="M18" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P18" s="37"/>
       <c r="Q18" s="52"/>
     </row>
@@ -3360,9 +3496,15 @@
         <v>60</v>
       </c>
       <c r="L19" s="54"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
+      <c r="M19" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P19" s="37"/>
       <c r="Q19" s="52"/>
     </row>
@@ -3379,9 +3521,15 @@
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
       <c r="L20" s="52"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
+      <c r="M20" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P20" s="37"/>
       <c r="Q20" s="52"/>
     </row>
@@ -3395,9 +3543,15 @@
         <v>62</v>
       </c>
       <c r="L21" s="55"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
+      <c r="M21" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P21" s="37"/>
       <c r="Q21" s="52"/>
     </row>
@@ -3414,9 +3568,15 @@
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
+      <c r="M22" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P22" s="37"/>
       <c r="Q22" s="52"/>
     </row>
@@ -3430,9 +3590,15 @@
         <v>64</v>
       </c>
       <c r="L23" s="55"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
+      <c r="M23" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P23" s="37"/>
       <c r="Q23" s="52"/>
     </row>
@@ -3449,9 +3615,15 @@
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
       <c r="L24" s="52"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
+      <c r="M24" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P24" s="37"/>
       <c r="Q24" s="52"/>
     </row>
@@ -3469,9 +3641,15 @@
         <v>66</v>
       </c>
       <c r="L25" s="55"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
+      <c r="M25" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P25" s="37"/>
       <c r="Q25" s="52"/>
     </row>
@@ -3491,9 +3669,15 @@
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
       <c r="L26" s="52"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
+      <c r="M26" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N26" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="O26" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P26" s="37"/>
       <c r="Q26" s="52"/>
     </row>
@@ -3507,9 +3691,15 @@
         <v>68</v>
       </c>
       <c r="L27" s="55"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
+      <c r="M27" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P27" s="37"/>
       <c r="Q27" s="52"/>
     </row>
@@ -3530,9 +3720,15 @@
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
       <c r="L28" s="52"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
+      <c r="M28" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="O28" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P28" s="37"/>
       <c r="Q28" s="52"/>
     </row>
@@ -3557,9 +3753,15 @@
       <c r="J29" s="38"/>
       <c r="K29" s="38"/>
       <c r="L29" s="52"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
+      <c r="M29" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N29" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P29" s="37"/>
       <c r="Q29" s="52"/>
     </row>
@@ -3582,10 +3784,18 @@
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
       <c r="L30" s="52"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="37"/>
+      <c r="M30" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N30" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="O30" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="Q30" s="52"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" customHeight="1">
@@ -3609,9 +3819,15 @@
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
       <c r="L31" s="52"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
+      <c r="M31" s="95">
+        <v>45855</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="O31" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="P31" s="37"/>
       <c r="Q31" s="52"/>
     </row>

--- a/src/main/resources/plan/結合テスト仕様書.xlsx
+++ b/src/main/resources/plan/結合テスト仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness.LAPTOP-C0HULFB7.000\Desktop\expense-1\src\main\resources\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\expense\src\main\resources\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765932D4-EB9A-46CA-A170-065B0A393820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA5E99BE-3E07-478D-BAFF-304F520A4615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,11 +22,12 @@
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="90">
   <si>
     <t>作成者</t>
   </si>
@@ -883,8 +884,33 @@
   </si>
   <si>
     <t>push</t>
-    <rPh sb="4" eb="5">
+    <rPh sb="0" eb="4">
       <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面表示が正しいかの目視での確認・ＤＢ上にデータが反映されるかの確認</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モクシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1415,6 +1441,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1458,39 +1520,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1498,9 +1527,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1871,25 +1897,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72" t="s">
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1904,23 +1930,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="75" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1935,50 +1961,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="32" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="90" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="89"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="76"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="89"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1987,20 +2013,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="84" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -2010,10 +2036,10 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="84" t="s">
+      <c r="P5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="91"/>
+      <c r="Q5" s="78"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
@@ -2079,13 +2105,13 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="27"/>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="83"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
       <c r="M8" s="14"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2944,6 +2970,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="A4:B4"/>
@@ -2952,11 +2983,6 @@
     <mergeCell ref="C3:Q3"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2969,8 +2995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D23B27B-4CCE-47EB-8F40-25F2EA0A2F30}">
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11"/>
@@ -2986,25 +3012,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72" t="s">
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3019,23 +3045,23 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="75" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -3050,50 +3076,50 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="32" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="90" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="89"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="76"/>
     </row>
     <row r="4" spans="1:18" ht="14" customHeight="1">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="89"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1">
       <c r="A5" s="32" t="s">
@@ -3102,20 +3128,20 @@
       <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="84" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -3125,10 +3151,10 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="84" t="s">
+      <c r="P5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="91"/>
+      <c r="Q5" s="78"/>
     </row>
     <row r="6" spans="1:18" ht="11.25" customHeight="1">
       <c r="A6" s="33">
@@ -3148,7 +3174,7 @@
         <v>51</v>
       </c>
       <c r="L6" s="54"/>
-      <c r="M6" s="95">
+      <c r="M6" s="67">
         <v>45855</v>
       </c>
       <c r="N6" s="33" t="s">
@@ -3176,7 +3202,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
       <c r="L7" s="52"/>
-      <c r="M7" s="95">
+      <c r="M7" s="67">
         <v>45855</v>
       </c>
       <c r="N7" s="33" t="s">
@@ -3198,7 +3224,7 @@
         <v>53</v>
       </c>
       <c r="L8" s="55"/>
-      <c r="M8" s="95">
+      <c r="M8" s="67">
         <v>45855</v>
       </c>
       <c r="N8" s="33" t="s">
@@ -3223,7 +3249,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
       <c r="L9" s="52"/>
-      <c r="M9" s="95">
+      <c r="M9" s="67">
         <v>45855</v>
       </c>
       <c r="N9" s="33" t="s">
@@ -3245,7 +3271,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="55"/>
-      <c r="M10" s="95">
+      <c r="M10" s="67">
         <v>45855</v>
       </c>
       <c r="N10" s="33" t="s">
@@ -3270,7 +3296,7 @@
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
       <c r="L11" s="52"/>
-      <c r="M11" s="95">
+      <c r="M11" s="67">
         <v>45855</v>
       </c>
       <c r="N11" s="33" t="s">
@@ -3292,7 +3318,7 @@
         <v>57</v>
       </c>
       <c r="L12" s="55"/>
-      <c r="M12" s="95">
+      <c r="M12" s="67">
         <v>45855</v>
       </c>
       <c r="N12" s="33" t="s">
@@ -3317,7 +3343,7 @@
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
       <c r="L13" s="52"/>
-      <c r="M13" s="95">
+      <c r="M13" s="67">
         <v>45855</v>
       </c>
       <c r="N13" s="33" t="s">
@@ -3345,7 +3371,7 @@
         <v>47</v>
       </c>
       <c r="L14" s="55"/>
-      <c r="M14" s="95">
+      <c r="M14" s="67">
         <v>45855</v>
       </c>
       <c r="N14" s="33" t="s">
@@ -3374,7 +3400,7 @@
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
       <c r="L15" s="52"/>
-      <c r="M15" s="95">
+      <c r="M15" s="67">
         <v>45855</v>
       </c>
       <c r="N15" s="33" t="s">
@@ -3404,7 +3430,7 @@
         <v>59</v>
       </c>
       <c r="L16" s="55"/>
-      <c r="M16" s="95">
+      <c r="M16" s="67">
         <v>45855</v>
       </c>
       <c r="N16" s="33" t="s">
@@ -3413,10 +3439,10 @@
       <c r="O16" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="P16" s="92" t="s">
+      <c r="P16" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="Q16" s="93"/>
+      <c r="Q16" s="94"/>
       <c r="R16"/>
     </row>
     <row r="17" spans="1:17" ht="184.5" customHeight="1">
@@ -3436,7 +3462,7 @@
       <c r="J17" s="47"/>
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
-      <c r="M17" s="95">
+      <c r="M17" s="67">
         <v>45855</v>
       </c>
       <c r="N17" s="33" t="s">
@@ -3445,10 +3471,10 @@
       <c r="O17" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="92" t="s">
+      <c r="P17" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="Q17" s="93"/>
+      <c r="Q17" s="94"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="33">
@@ -3471,7 +3497,7 @@
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
-      <c r="M18" s="95">
+      <c r="M18" s="67">
         <v>45855</v>
       </c>
       <c r="N18" s="33" t="s">
@@ -3496,7 +3522,7 @@
         <v>60</v>
       </c>
       <c r="L19" s="54"/>
-      <c r="M19" s="95">
+      <c r="M19" s="67">
         <v>45855</v>
       </c>
       <c r="N19" s="33" t="s">
@@ -3521,7 +3547,7 @@
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
       <c r="L20" s="52"/>
-      <c r="M20" s="95">
+      <c r="M20" s="67">
         <v>45855</v>
       </c>
       <c r="N20" s="33" t="s">
@@ -3543,7 +3569,7 @@
         <v>62</v>
       </c>
       <c r="L21" s="55"/>
-      <c r="M21" s="95">
+      <c r="M21" s="67">
         <v>45855</v>
       </c>
       <c r="N21" s="33" t="s">
@@ -3568,7 +3594,7 @@
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
       <c r="L22" s="52"/>
-      <c r="M22" s="95">
+      <c r="M22" s="67">
         <v>45855</v>
       </c>
       <c r="N22" s="33" t="s">
@@ -3590,7 +3616,7 @@
         <v>64</v>
       </c>
       <c r="L23" s="55"/>
-      <c r="M23" s="95">
+      <c r="M23" s="67">
         <v>45855</v>
       </c>
       <c r="N23" s="33" t="s">
@@ -3615,7 +3641,7 @@
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
       <c r="L24" s="52"/>
-      <c r="M24" s="95">
+      <c r="M24" s="67">
         <v>45855</v>
       </c>
       <c r="N24" s="33" t="s">
@@ -3641,7 +3667,7 @@
         <v>66</v>
       </c>
       <c r="L25" s="55"/>
-      <c r="M25" s="95">
+      <c r="M25" s="67">
         <v>45855</v>
       </c>
       <c r="N25" s="33" t="s">
@@ -3669,7 +3695,7 @@
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
       <c r="L26" s="52"/>
-      <c r="M26" s="95">
+      <c r="M26" s="67">
         <v>45855</v>
       </c>
       <c r="N26" s="33" t="s">
@@ -3691,7 +3717,7 @@
         <v>68</v>
       </c>
       <c r="L27" s="55"/>
-      <c r="M27" s="95">
+      <c r="M27" s="67">
         <v>45855</v>
       </c>
       <c r="N27" s="33" t="s">
@@ -3720,7 +3746,7 @@
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
       <c r="L28" s="52"/>
-      <c r="M28" s="95">
+      <c r="M28" s="67">
         <v>45855</v>
       </c>
       <c r="N28" s="33" t="s">
@@ -3753,7 +3779,7 @@
       <c r="J29" s="38"/>
       <c r="K29" s="38"/>
       <c r="L29" s="52"/>
-      <c r="M29" s="95">
+      <c r="M29" s="67">
         <v>45855</v>
       </c>
       <c r="N29" s="33" t="s">
@@ -3784,7 +3810,7 @@
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
       <c r="L30" s="52"/>
-      <c r="M30" s="95">
+      <c r="M30" s="67">
         <v>45855</v>
       </c>
       <c r="N30" s="33" t="s">
@@ -3819,7 +3845,7 @@
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
       <c r="L31" s="52"/>
-      <c r="M31" s="95">
+      <c r="M31" s="67">
         <v>45855</v>
       </c>
       <c r="N31" s="33" t="s">
